--- a/fut_rpt.xlsx
+++ b/fut_rpt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,77 +441,77 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>0407</t>
+          <t>0418</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>0408</t>
+          <t>0421</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>0409</t>
+          <t>0422</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>0410</t>
+          <t>0423</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>0411</t>
+          <t>0424</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>0414</t>
+          <t>0425</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>0415</t>
+          <t>0428</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>0416</t>
+          <t>0429</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>0417</t>
+          <t>0430</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>0418</t>
+          <t>0506</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>0421</t>
+          <t>0507</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>0422</t>
+          <t>0508</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>0423</t>
+          <t>0509</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>0424</t>
+          <t>0512</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>0425</t>
+          <t>0513</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -533,126 +533,378 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>橡胶指数</t>
+          <t>塑料指数</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="C2" t="n">
-        <v>91.8</v>
+        <v>93.5</v>
       </c>
       <c r="D2" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>93</v>
+        <v>92.8</v>
       </c>
       <c r="F2" t="n">
-        <v>92.2</v>
+        <v>92.8</v>
       </c>
       <c r="G2" t="n">
-        <v>91.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>91.3</v>
+        <v>92.8</v>
       </c>
       <c r="I2" t="n">
-        <v>91.59999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="J2" t="n">
-        <v>91.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>92</v>
+        <v>95.2</v>
       </c>
       <c r="L2" t="n">
-        <v>91.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="M2" t="n">
-        <v>92</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>91.8</v>
+        <v>97.2</v>
       </c>
       <c r="O2" t="n">
-        <v>91.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>turn_rate</t>
-        </is>
-      </c>
+        <v>93.8</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>main_in</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>橡胶指数</t>
+          <t>塑料指数</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>沪金指数</t>
+          <t>粳米指数</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.1</v>
+        <v>25.2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.3</v>
+        <v>21.7</v>
       </c>
       <c r="D3" t="n">
-        <v>6.3</v>
+        <v>18.5</v>
       </c>
       <c r="E3" t="n">
-        <v>5.6</v>
+        <v>16.2</v>
       </c>
       <c r="F3" t="n">
-        <v>5.2</v>
+        <v>13.9</v>
       </c>
       <c r="G3" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6.4</v>
-      </c>
       <c r="P3" t="n">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
+          <t>sell_out</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>粳米指数</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>沪金指数</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21</v>
+      </c>
+      <c r="P4" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>turn_rate</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>沪金指数</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>菜籽指数</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>105</v>
+      </c>
+      <c r="K5" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>106</v>
+      </c>
+      <c r="M5" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>main_stock,main_in</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>菜籽指数</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>橡胶指数</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>92</v>
+      </c>
+      <c r="C6" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>92</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>91</v>
+      </c>
+      <c r="K6" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="N6" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>turn_rate</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>橡胶指数</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PP指数</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>79</v>
+      </c>
+      <c r="I7" t="n">
+        <v>80</v>
+      </c>
+      <c r="J7" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="M7" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="N7" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>main_in</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>PP指数</t>
         </is>
       </c>
     </row>
